--- a/docs/resources/NetworkDictionary.xlsx
+++ b/docs/resources/NetworkDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\projects\catalogue\templates_lifecycle\Catalogue_cdm_for_data_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43DB1A5-2D08-4CE6-B98A-8E1E1AD1086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD054C6-0872-45C9-940B-2CB2FD9686B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="2920" windowWidth="10440" windowHeight="7880" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Releases" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>description</t>
   </si>
@@ -40,12 +40,6 @@
     <t>resource</t>
   </si>
   <si>
-    <t>ageMin</t>
-  </si>
-  <si>
-    <t>ageMax</t>
-  </si>
-  <si>
     <t>subcohorts</t>
   </si>
   <si>
@@ -107,6 +101,9 @@
   </si>
   <si>
     <t>isRepeatOf.name</t>
+  </si>
+  <si>
+    <t>ageGroups</t>
   </si>
 </sst>
 </file>
@@ -959,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9333092-E366-40FA-AD5E-6E713847EA07}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -973,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1007,16 +1004,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1056,10 +1053,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1068,34 +1065,34 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1124,31 +1121,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1178,10 +1175,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1190,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1209,19 +1206,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1232,13 +1229,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docs/resources/NetworkDictionary.xlsx
+++ b/docs/resources/NetworkDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\projects\catalogue\templates_lifecycle\Catalogue_cdm_for_data_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43DB1A5-2D08-4CE6-B98A-8E1E1AD1086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363CAEE-A1B8-448C-9744-CE65C3D8DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="2920" windowWidth="10440" windowHeight="7880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Releases" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>description</t>
   </si>
@@ -40,12 +40,6 @@
     <t>resource</t>
   </si>
   <si>
-    <t>ageMin</t>
-  </si>
-  <si>
-    <t>ageMax</t>
-  </si>
-  <si>
     <t>subcohorts</t>
   </si>
   <si>
@@ -107,6 +101,9 @@
   </si>
   <si>
     <t>isRepeatOf.name</t>
+  </si>
+  <si>
+    <t>ageGroups</t>
   </si>
 </sst>
 </file>
@@ -973,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -994,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1007,16 +1004,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1056,10 +1053,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1068,34 +1065,34 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1124,31 +1121,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1178,10 +1175,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1190,16 +1187,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1209,19 +1206,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1232,13 +1230,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
